--- a/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/StructureDefinition/NdE_SubscriptionNdE</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-subscription</t>
   </si>
   <si>
     <t>Version</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01</t>
+    <t>2025-12-16T07:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-16T07:50:40+00:00</t>
+    <t>2026-01-02T15:03:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T15:03:02+00:00</t>
+    <t>2026-01-09T09:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-subscription</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/nde-subscription</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T09:23:40+00:00</t>
+    <t>2026-01-15T15:19:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,7 +450,7 @@
     <t>SubscriptionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/subscription-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/subscription-date}
 </t>
   </si>
   <si>
@@ -470,7 +470,7 @@
     <t>Start</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/start}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/start}
 </t>
   </si>
   <si>
@@ -483,7 +483,7 @@
     <t>Subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/subject}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/subject}
 </t>
   </si>
   <si>
@@ -496,7 +496,7 @@
     <t>Declarant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/declarant}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/declarant}
 </t>
   </si>
   <si>
@@ -509,7 +509,7 @@
     <t>EventType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-type}
 </t>
   </si>
   <si>
@@ -525,7 +525,7 @@
     <t>Subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/subscriber}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/subscriber}
 </t>
   </si>
   <si>

--- a/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:19:42+00:00</t>
+    <t>2026-01-16T10:55:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:55:18+00:00</t>
+    <t>2026-01-21T09:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T09:17:46+00:00</t>
+    <t>2026-01-23T10:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-subscription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T10:31:33+00:00</t>
+    <t>2026-01-30T14:49:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
